--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7-9</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,40 +496,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>32-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>33-35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>False</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_remove/rem5/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Strong wireless interference Please fly with caution Obstacle Avoidance Disabled Landing gear lowered Obstacle Avoidance Disabled .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
+          <t>Obstacle Avoidance Disabled</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31-35</t>
+          <t>7-9</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -496,15 +496,40 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Calibrate Compass Before Takeoff</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>32-35</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33-35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>False</t>
         </is>
